--- a/team_specific_matrix/Belmont_A.xlsx
+++ b/team_specific_matrix/Belmont_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2077922077922078</v>
+        <v>0.2181208053691275</v>
       </c>
       <c r="C2">
-        <v>0.5108225108225108</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008658008658008658</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1731601731601732</v>
+        <v>0.1644295302013423</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09956709956709957</v>
+        <v>0.1006711409395973</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01639344262295082</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C3">
-        <v>0.02459016393442623</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00819672131147541</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7950819672131147</v>
+        <v>0.7712418300653595</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1557377049180328</v>
+        <v>0.1699346405228758</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8421052631578947</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1578947368421053</v>
+        <v>0.1276595744680851</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03571428571428571</v>
+        <v>0.03791469194312796</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03571428571428571</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05357142857142857</v>
+        <v>0.04739336492890995</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2142857142857143</v>
+        <v>0.1943127962085308</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0119047619047619</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1785714285714286</v>
+        <v>0.1658767772511848</v>
       </c>
       <c r="R6">
-        <v>0.09523809523809523</v>
+        <v>0.0947867298578199</v>
       </c>
       <c r="S6">
-        <v>0.375</v>
+        <v>0.4075829383886256</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.1011904761904762</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02222222222222222</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="E7">
-        <v>0.007407407407407408</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="F7">
-        <v>0.05185185185185185</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06666666666666667</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04444444444444445</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1851851851851852</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R7">
-        <v>0.1111111111111111</v>
+        <v>0.1130952380952381</v>
       </c>
       <c r="S7">
-        <v>0.4</v>
+        <v>0.4047619047619048</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08</v>
+        <v>0.07952286282306163</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.016</v>
+        <v>0.01391650099403579</v>
       </c>
       <c r="E8">
-        <v>0.002666666666666667</v>
+        <v>0.001988071570576541</v>
       </c>
       <c r="F8">
-        <v>0.06133333333333333</v>
+        <v>0.07157057654075547</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09066666666666667</v>
+        <v>0.08548707753479125</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.016</v>
+        <v>0.01391650099403579</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1973333333333333</v>
+        <v>0.1848906560636183</v>
       </c>
       <c r="R8">
-        <v>0.1013333333333333</v>
+        <v>0.1053677932405567</v>
       </c>
       <c r="S8">
-        <v>0.4346666666666666</v>
+        <v>0.4433399602385686</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1141304347826087</v>
+        <v>0.1173913043478261</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02717391304347826</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07608695652173914</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08152173913043478</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005434782608695652</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1576086956521739</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="R9">
-        <v>0.1141304347826087</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="S9">
-        <v>0.4239130434782609</v>
+        <v>0.4391304347826087</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1068859198355601</v>
+        <v>0.106687898089172</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02158273381294964</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0007961783439490446</v>
       </c>
       <c r="F10">
-        <v>0.07091469681397738</v>
+        <v>0.06847133757961783</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08016443987667009</v>
+        <v>0.08200636942675159</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01747173689619733</v>
+        <v>0.01671974522292994</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2076053442959918</v>
+        <v>0.2245222929936306</v>
       </c>
       <c r="R10">
-        <v>0.1027749229188078</v>
+        <v>0.0963375796178344</v>
       </c>
       <c r="S10">
-        <v>0.3926002055498458</v>
+        <v>0.3853503184713376</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1005025125628141</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1055276381909548</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K11">
-        <v>0.1708542713567839</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="L11">
-        <v>0.6080402010050251</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01507537688442211</v>
+        <v>0.01984126984126984</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7388535031847133</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1640625</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0390625</v>
+        <v>0.03184713375796178</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.046875</v>
+        <v>0.04458598726114649</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01685393258426966</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1573033707865168</v>
+        <v>0.1735159817351598</v>
       </c>
       <c r="I15">
-        <v>0.06741573033707865</v>
+        <v>0.0593607305936073</v>
       </c>
       <c r="J15">
-        <v>0.3820224719101123</v>
+        <v>0.3607305936073059</v>
       </c>
       <c r="K15">
-        <v>0.03370786516853932</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01123595505617977</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07303370786516854</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2584269662921349</v>
+        <v>0.2557077625570776</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01219512195121951</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1524390243902439</v>
+        <v>0.1633663366336634</v>
       </c>
       <c r="I16">
-        <v>0.07926829268292683</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="J16">
-        <v>0.4146341463414634</v>
+        <v>0.4405940594059406</v>
       </c>
       <c r="K16">
-        <v>0.1158536585365854</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02439024390243903</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.09146341463414634</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1097560975609756</v>
+        <v>0.09900990099009901</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0196078431372549</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2072829131652661</v>
+        <v>0.2172995780590717</v>
       </c>
       <c r="I17">
-        <v>0.1204481792717087</v>
+        <v>0.1181434599156118</v>
       </c>
       <c r="J17">
-        <v>0.3809523809523809</v>
+        <v>0.379746835443038</v>
       </c>
       <c r="K17">
-        <v>0.08683473389355742</v>
+        <v>0.08649789029535865</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008403361344537815</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002109704641350211</v>
       </c>
       <c r="O17">
-        <v>0.06722689075630252</v>
+        <v>0.05907172995780591</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1092436974789916</v>
+        <v>0.1118143459915612</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01595744680851064</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1702127659574468</v>
+        <v>0.1759656652360515</v>
       </c>
       <c r="I18">
-        <v>0.1436170212765958</v>
+        <v>0.1244635193133047</v>
       </c>
       <c r="J18">
-        <v>0.4308510638297872</v>
+        <v>0.4163090128755365</v>
       </c>
       <c r="K18">
-        <v>0.0797872340425532</v>
+        <v>0.07725321888412018</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01595744680851064</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06914893617021277</v>
+        <v>0.0815450643776824</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07446808510638298</v>
+        <v>0.09442060085836911</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01102204408817635</v>
+        <v>0.008422664624808576</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.219438877755511</v>
+        <v>0.2243491577335375</v>
       </c>
       <c r="I19">
-        <v>0.08917835671342686</v>
+        <v>0.08728943338437979</v>
       </c>
       <c r="J19">
-        <v>0.4028056112224449</v>
+        <v>0.4050535987748852</v>
       </c>
       <c r="K19">
-        <v>0.09418837675350701</v>
+        <v>0.09111791730474732</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02104208416833667</v>
+        <v>0.01837672281776417</v>
       </c>
       <c r="N19">
-        <v>0.003006012024048096</v>
+        <v>0.003062787136294028</v>
       </c>
       <c r="O19">
-        <v>0.05911823647294589</v>
+        <v>0.05742725880551302</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1002004008016032</v>
+        <v>0.1049004594180704</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Belmont_A.xlsx
+++ b/team_specific_matrix/Belmont_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2181208053691275</v>
+        <v>0.2117263843648209</v>
       </c>
       <c r="C2">
-        <v>0.5033557046979866</v>
+        <v>0.5179153094462541</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01342281879194631</v>
+        <v>0.01302931596091205</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1644295302013423</v>
+        <v>0.1596091205211726</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1006711409395973</v>
+        <v>0.09771986970684039</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0130718954248366</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C3">
-        <v>0.0196078431372549</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0261437908496732</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7712418300653595</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1699346405228758</v>
+        <v>0.1707317073170732</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8723404255319149</v>
+        <v>0.875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1276595744680851</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03791469194312796</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04265402843601896</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04739336492890995</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1943127962085308</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009478672985781991</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1658767772511848</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="R6">
-        <v>0.0947867298578199</v>
+        <v>0.1</v>
       </c>
       <c r="S6">
-        <v>0.4075829383886256</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1011904761904762</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02380952380952381</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="E7">
-        <v>0.005952380952380952</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="F7">
-        <v>0.04761904761904762</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07738095238095238</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03571428571428571</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1904761904761905</v>
+        <v>0.1933701657458564</v>
       </c>
       <c r="R7">
-        <v>0.1130952380952381</v>
+        <v>0.1104972375690608</v>
       </c>
       <c r="S7">
-        <v>0.4047619047619048</v>
+        <v>0.4143646408839779</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07952286282306163</v>
+        <v>0.08118081180811808</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01391650099403579</v>
+        <v>0.01291512915129151</v>
       </c>
       <c r="E8">
-        <v>0.001988071570576541</v>
+        <v>0.001845018450184502</v>
       </c>
       <c r="F8">
-        <v>0.07157057654075547</v>
+        <v>0.07380073800738007</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08548707753479125</v>
+        <v>0.08671586715867159</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01391650099403579</v>
+        <v>0.01291512915129151</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1848906560636183</v>
+        <v>0.1845018450184502</v>
       </c>
       <c r="R8">
-        <v>0.1053677932405567</v>
+        <v>0.1107011070110701</v>
       </c>
       <c r="S8">
-        <v>0.4433399602385686</v>
+        <v>0.4354243542435424</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1173913043478261</v>
+        <v>0.1120331950207469</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02608695652173913</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07391304347826087</v>
+        <v>0.07053941908713693</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08260869565217391</v>
+        <v>0.08713692946058091</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.004347826086956522</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1521739130434783</v>
+        <v>0.1493775933609958</v>
       </c>
       <c r="R9">
-        <v>0.1043478260869565</v>
+        <v>0.1120331950207469</v>
       </c>
       <c r="S9">
-        <v>0.4391304347826087</v>
+        <v>0.4356846473029046</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.106687898089172</v>
+        <v>0.1026022304832714</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01910828025477707</v>
+        <v>0.01933085501858736</v>
       </c>
       <c r="E10">
-        <v>0.0007961783439490446</v>
+        <v>0.0007434944237918215</v>
       </c>
       <c r="F10">
-        <v>0.06847133757961783</v>
+        <v>0.07137546468401487</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08200636942675159</v>
+        <v>0.08252788104089219</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01671974522292994</v>
+        <v>0.0171003717472119</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2245222929936306</v>
+        <v>0.2223048327137546</v>
       </c>
       <c r="R10">
-        <v>0.0963375796178344</v>
+        <v>0.1003717472118959</v>
       </c>
       <c r="S10">
-        <v>0.3853503184713376</v>
+        <v>0.3836431226765799</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1071428571428571</v>
+        <v>0.1172161172161172</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09523809523809523</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="K11">
-        <v>0.1825396825396825</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L11">
-        <v>0.5952380952380952</v>
+        <v>0.575091575091575</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01984126984126984</v>
+        <v>0.01831501831501832</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7388535031847133</v>
+        <v>0.7439024390243902</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1847133757961783</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03184713375796178</v>
+        <v>0.03048780487804878</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04458598726114649</v>
+        <v>0.0426829268292683</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.717948717948718</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2307692307692308</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05128205128205128</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0136986301369863</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1735159817351598</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="I15">
-        <v>0.0593607305936073</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="J15">
-        <v>0.3607305936073059</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="K15">
-        <v>0.0410958904109589</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0182648401826484</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0776255707762557</v>
+        <v>0.07264957264957266</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2557077625570776</v>
+        <v>0.2564102564102564</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009900990099009901</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1633663366336634</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="I16">
-        <v>0.09405940594059406</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="J16">
-        <v>0.4405940594059406</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.09405940594059406</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0198019801980198</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07920792079207921</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09900990099009901</v>
+        <v>0.1047619047619048</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01687763713080169</v>
+        <v>0.01577909270216963</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2172995780590717</v>
+        <v>0.2169625246548323</v>
       </c>
       <c r="I17">
-        <v>0.1181434599156118</v>
+        <v>0.1143984220907298</v>
       </c>
       <c r="J17">
-        <v>0.379746835443038</v>
+        <v>0.3925049309664694</v>
       </c>
       <c r="K17">
-        <v>0.08649789029535865</v>
+        <v>0.08481262327416174</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008438818565400843</v>
+        <v>0.007889546351084813</v>
       </c>
       <c r="N17">
-        <v>0.002109704641350211</v>
+        <v>0.001972386587771203</v>
       </c>
       <c r="O17">
-        <v>0.05907172995780591</v>
+        <v>0.05522682445759369</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1118143459915612</v>
+        <v>0.1104536489151874</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0128755364806867</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1759656652360515</v>
+        <v>0.1762452107279693</v>
       </c>
       <c r="I18">
-        <v>0.1244635193133047</v>
+        <v>0.1187739463601533</v>
       </c>
       <c r="J18">
-        <v>0.4163090128755365</v>
+        <v>0.421455938697318</v>
       </c>
       <c r="K18">
-        <v>0.07725321888412018</v>
+        <v>0.07662835249042145</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01716738197424893</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0815450643776824</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09442060085836911</v>
+        <v>0.09961685823754789</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008422664624808576</v>
+        <v>0.007930785868781542</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2243491577335375</v>
+        <v>0.2278298485940879</v>
       </c>
       <c r="I19">
-        <v>0.08728943338437979</v>
+        <v>0.08651766402307137</v>
       </c>
       <c r="J19">
-        <v>0.4050535987748852</v>
+        <v>0.4023071377072819</v>
       </c>
       <c r="K19">
-        <v>0.09111791730474732</v>
+        <v>0.09300648882480173</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01837672281776417</v>
+        <v>0.01802451333813987</v>
       </c>
       <c r="N19">
-        <v>0.003062787136294028</v>
+        <v>0.002883922134102379</v>
       </c>
       <c r="O19">
-        <v>0.05742725880551302</v>
+        <v>0.05912040374909877</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1049004594180704</v>
+        <v>0.1023792357606345</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Belmont_A.xlsx
+++ b/team_specific_matrix/Belmont_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2117263843648209</v>
+        <v>0.2125</v>
       </c>
       <c r="C2">
-        <v>0.5179153094462541</v>
+        <v>0.51875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01302931596091205</v>
+        <v>0.0125</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1596091205211726</v>
+        <v>0.159375</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09771986970684039</v>
+        <v>0.096875</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01219512195121951</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="C3">
-        <v>0.02439024390243903</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02439024390243903</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7682926829268293</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1707317073170732</v>
+        <v>0.1695906432748538</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.875</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.125</v>
+        <v>0.1568627450980392</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03478260869565217</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0391304347826087</v>
+        <v>0.03813559322033899</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05217391304347826</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1869565217391304</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008695652173913044</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1782608695652174</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="R6">
-        <v>0.1</v>
+        <v>0.09745762711864407</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.4067796610169492</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09944751381215469</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02209944751381215</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E7">
-        <v>0.005524861878453038</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="F7">
-        <v>0.04972375690607735</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0718232044198895</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03314917127071823</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1933701657458564</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="R7">
-        <v>0.1104972375690608</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="S7">
-        <v>0.4143646408839779</v>
+        <v>0.4139784946236559</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08118081180811808</v>
+        <v>0.08228980322003578</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01291512915129151</v>
+        <v>0.01610017889087657</v>
       </c>
       <c r="E8">
-        <v>0.001845018450184502</v>
+        <v>0.001788908765652952</v>
       </c>
       <c r="F8">
-        <v>0.07380073800738007</v>
+        <v>0.07513416815742398</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08671586715867159</v>
+        <v>0.08586762075134168</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01291512915129151</v>
+        <v>0.01252236135957066</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1845018450184502</v>
+        <v>0.184257602862254</v>
       </c>
       <c r="R8">
-        <v>0.1107011070110701</v>
+        <v>0.10912343470483</v>
       </c>
       <c r="S8">
-        <v>0.4354243542435424</v>
+        <v>0.4329159212880143</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1120331950207469</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02489626556016597</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07053941908713693</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08713692946058091</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008298755186721992</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1493775933609958</v>
+        <v>0.1491935483870968</v>
       </c>
       <c r="R9">
-        <v>0.1120331950207469</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="S9">
-        <v>0.4356846473029046</v>
+        <v>0.4354838709677419</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1026022304832714</v>
+        <v>0.1042415528396837</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01933085501858736</v>
+        <v>0.01941049604601006</v>
       </c>
       <c r="E10">
-        <v>0.0007434944237918215</v>
+        <v>0.0007189072609633358</v>
       </c>
       <c r="F10">
-        <v>0.07137546468401487</v>
+        <v>0.07117181883537024</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08252788104089219</v>
+        <v>0.08123652048885693</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0171003717472119</v>
+        <v>0.01725377426312006</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2223048327137546</v>
+        <v>0.2207045291157441</v>
       </c>
       <c r="R10">
-        <v>0.1003717472118959</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="S10">
-        <v>0.3836431226765799</v>
+        <v>0.3824586628324946</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1172161172161172</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0989010989010989</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="K11">
-        <v>0.1904761904761905</v>
+        <v>0.1899641577060932</v>
       </c>
       <c r="L11">
-        <v>0.575091575091575</v>
+        <v>0.5770609318996416</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01831501831501832</v>
+        <v>0.01792114695340502</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7439024390243902</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1829268292682927</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03048780487804878</v>
+        <v>0.02976190476190476</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0426829268292683</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0170940170940171</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1709401709401709</v>
+        <v>0.1694214876033058</v>
       </c>
       <c r="I15">
-        <v>0.05982905982905983</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="J15">
-        <v>0.358974358974359</v>
+        <v>0.3553719008264463</v>
       </c>
       <c r="K15">
-        <v>0.04273504273504274</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02136752136752137</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07264957264957266</v>
+        <v>0.0743801652892562</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2564102564102564</v>
+        <v>0.2644628099173554</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009523809523809525</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1714285714285714</v>
+        <v>0.1735159817351598</v>
       </c>
       <c r="I16">
-        <v>0.09047619047619047</v>
+        <v>0.0867579908675799</v>
       </c>
       <c r="J16">
-        <v>0.4333333333333333</v>
+        <v>0.4337899543378995</v>
       </c>
       <c r="K16">
-        <v>0.09047619047619047</v>
+        <v>0.091324200913242</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02380952380952381</v>
+        <v>0.0228310502283105</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0761904761904762</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1047619047619048</v>
+        <v>0.1050228310502283</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01577909270216963</v>
+        <v>0.01535508637236084</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2169625246548323</v>
+        <v>0.2168905950095969</v>
       </c>
       <c r="I17">
-        <v>0.1143984220907298</v>
+        <v>0.1151631477927063</v>
       </c>
       <c r="J17">
-        <v>0.3925049309664694</v>
+        <v>0.3992322456813819</v>
       </c>
       <c r="K17">
-        <v>0.08481262327416174</v>
+        <v>0.08253358925143954</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007889546351084813</v>
+        <v>0.007677543186180422</v>
       </c>
       <c r="N17">
-        <v>0.001972386587771203</v>
+        <v>0.001919385796545105</v>
       </c>
       <c r="O17">
-        <v>0.05522682445759369</v>
+        <v>0.05374280230326296</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1104536489151874</v>
+        <v>0.1074856046065259</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01149425287356322</v>
+        <v>0.01107011070110701</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1762452107279693</v>
+        <v>0.1771217712177122</v>
       </c>
       <c r="I18">
-        <v>0.1187739463601533</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="J18">
-        <v>0.421455938697318</v>
+        <v>0.4280442804428044</v>
       </c>
       <c r="K18">
-        <v>0.07662835249042145</v>
+        <v>0.07380073800738007</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01532567049808429</v>
+        <v>0.01476014760147601</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08045977011494253</v>
+        <v>0.07749077490774908</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09961685823754789</v>
+        <v>0.0996309963099631</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007930785868781542</v>
+        <v>0.007670850767085077</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2278298485940879</v>
+        <v>0.2273361227336123</v>
       </c>
       <c r="I19">
-        <v>0.08651766402307137</v>
+        <v>0.08647140864714087</v>
       </c>
       <c r="J19">
-        <v>0.4023071377072819</v>
+        <v>0.403068340306834</v>
       </c>
       <c r="K19">
-        <v>0.09300648882480173</v>
+        <v>0.09274755927475593</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01802451333813987</v>
+        <v>0.01743375174337517</v>
       </c>
       <c r="N19">
-        <v>0.002883922134102379</v>
+        <v>0.002789400278940028</v>
       </c>
       <c r="O19">
-        <v>0.05912040374909877</v>
+        <v>0.05857740585774059</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1023792357606345</v>
+        <v>0.103905160390516</v>
       </c>
     </row>
   </sheetData>
